--- a/data/trans_orig/P33B_R1-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R1-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>59057</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46231</v>
+        <v>46843</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76094</v>
+        <v>75267</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.107255468562857</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08396229864213484</v>
+        <v>0.08507423659011862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1381965665875137</v>
+        <v>0.1366957774743128</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>104</v>
@@ -762,19 +762,19 @@
         <v>66754</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55592</v>
+        <v>55425</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80130</v>
+        <v>80735</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1366759132750056</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1138216514400903</v>
+        <v>0.1134802237700078</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1640629341420586</v>
+        <v>0.1653015310921477</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>167</v>
@@ -783,19 +783,19 @@
         <v>125811</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>107391</v>
+        <v>107258</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>146298</v>
+        <v>144963</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1210849799246072</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1033573738181089</v>
+        <v>0.1032292959811546</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.14080279754945</v>
+        <v>0.1395181723046967</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>491561</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>474524</v>
+        <v>475351</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>504387</v>
+        <v>503775</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8927445314371431</v>
+        <v>0.8927445314371429</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8618034334124866</v>
+        <v>0.8633042225256872</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.916037701357865</v>
+        <v>0.9149257634098814</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>582</v>
@@ -833,19 +833,19 @@
         <v>421657</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>408281</v>
+        <v>407676</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>432819</v>
+        <v>432986</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8633240867249945</v>
+        <v>0.8633240867249944</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8359370658579414</v>
+        <v>0.8346984689078524</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8861783485599097</v>
+        <v>0.8865197762299925</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1073</v>
@@ -854,19 +854,19 @@
         <v>913218</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>892731</v>
+        <v>894066</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>931638</v>
+        <v>931771</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8789150200753929</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8591972024505498</v>
+        <v>0.8604818276953033</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8966426261818908</v>
+        <v>0.8967707040188453</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>53420</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40695</v>
+        <v>41035</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67549</v>
+        <v>68769</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1105523908943637</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08421667009358505</v>
+        <v>0.08492195003563323</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1397911212210544</v>
+        <v>0.1423168485959846</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>108</v>
@@ -979,19 +979,19 @@
         <v>74939</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63245</v>
+        <v>62757</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>89968</v>
+        <v>90235</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1771003478221889</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1494640750286165</v>
+        <v>0.1483115236557538</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2126176669554844</v>
+        <v>0.2132498476045628</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>167</v>
@@ -1000,19 +1000,19 @@
         <v>128359</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>109422</v>
+        <v>110650</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>147618</v>
+        <v>148189</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1416211138539568</v>
+        <v>0.1416211138539567</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1207271513287445</v>
+        <v>0.1220828641173567</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1628701524632861</v>
+        <v>0.1635001287326759</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>429792</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>415663</v>
+        <v>414443</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>442517</v>
+        <v>442177</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8894476091056362</v>
+        <v>0.8894476091056361</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8602088787789456</v>
+        <v>0.8576831514040153</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9157833299064145</v>
+        <v>0.9150780499643667</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>482</v>
@@ -1050,19 +1050,19 @@
         <v>348204</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>333175</v>
+        <v>332908</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>359898</v>
+        <v>360386</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8228996521778111</v>
+        <v>0.8228996521778108</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7873823330445158</v>
+        <v>0.7867501523954372</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8505359249713837</v>
+        <v>0.8516884763442458</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>904</v>
@@ -1071,19 +1071,19 @@
         <v>777996</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>758737</v>
+        <v>758166</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>796933</v>
+        <v>795705</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8583788861460433</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8371298475367137</v>
+        <v>0.8364998712673238</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8792728486712557</v>
+        <v>0.8779171358826431</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>78888</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>64047</v>
+        <v>63791</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96433</v>
+        <v>95362</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1672732505332967</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1358050690578147</v>
+        <v>0.1352619059904941</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2044749193288928</v>
+        <v>0.2022034950840512</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -1196,19 +1196,19 @@
         <v>49966</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39903</v>
+        <v>39981</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60534</v>
+        <v>61757</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2672976692236929</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2134681848543144</v>
+        <v>0.2138814250534418</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3238334936616707</v>
+        <v>0.3303775367307358</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>163</v>
@@ -1217,19 +1217,19 @@
         <v>128854</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>109966</v>
+        <v>108566</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>149317</v>
+        <v>147779</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1956654823987328</v>
+        <v>0.1956654823987327</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1669845619285543</v>
+        <v>0.1648588382725716</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2267392728968193</v>
+        <v>0.224404385247657</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>392724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>375179</v>
+        <v>376250</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>407565</v>
+        <v>407821</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8327267494667033</v>
+        <v>0.8327267494667032</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7955250806711073</v>
+        <v>0.797796504915949</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8641949309421851</v>
+        <v>0.8647380940095059</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>214</v>
@@ -1267,19 +1267,19 @@
         <v>136963</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>126395</v>
+        <v>125172</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>147026</v>
+        <v>146948</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7327023307763072</v>
+        <v>0.7327023307763071</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6761665063383291</v>
+        <v>0.669622463269264</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7865318151456856</v>
+        <v>0.7861185749465582</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>613</v>
@@ -1288,19 +1288,19 @@
         <v>529686</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>509223</v>
+        <v>510761</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>548574</v>
+        <v>549974</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8043345176012674</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7732607271031805</v>
+        <v>0.7755956147523433</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8330154380714453</v>
+        <v>0.8351411617274289</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>147930</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>125962</v>
+        <v>127963</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>169967</v>
+        <v>170013</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1306979544614369</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1112888636355964</v>
+        <v>0.1130573490912242</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1501682317675292</v>
+        <v>0.1502094159532667</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>247</v>
@@ -1413,19 +1413,19 @@
         <v>160302</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>142607</v>
+        <v>141414</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>180815</v>
+        <v>179869</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1861359699606767</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1655894800538145</v>
+        <v>0.1642032688733308</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2099546764746223</v>
+        <v>0.2088563573565329</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>422</v>
@@ -1434,19 +1434,19 @@
         <v>308232</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>280902</v>
+        <v>278274</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>337588</v>
+        <v>338283</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1546530741621122</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1409406174452937</v>
+        <v>0.1396219445826359</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1693823440183465</v>
+        <v>0.1697307738547158</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>983913</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>961876</v>
+        <v>961830</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1005881</v>
+        <v>1003880</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8693020455385631</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8498317682324708</v>
+        <v>0.8497905840467324</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8887111363644036</v>
+        <v>0.8869426509087758</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>983</v>
@@ -1484,19 +1484,19 @@
         <v>700909</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>680396</v>
+        <v>681342</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>718604</v>
+        <v>719797</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8138640300393234</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7900453235253777</v>
+        <v>0.7911436426434671</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8344105199461854</v>
+        <v>0.8357967311266693</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1926</v>
@@ -1505,19 +1505,19 @@
         <v>1684822</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1655466</v>
+        <v>1654771</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1712152</v>
+        <v>1714780</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8453469258378878</v>
+        <v>0.845346925837888</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8306176559816534</v>
+        <v>0.8302692261452842</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8590593825547064</v>
+        <v>0.8603780554173641</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>75721</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61792</v>
+        <v>59875</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>92229</v>
+        <v>90783</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1335746390966638</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1090024652271349</v>
+        <v>0.1056220994523495</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1626960820810145</v>
+        <v>0.160143708736563</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>368</v>
@@ -1630,19 +1630,19 @@
         <v>222868</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>200900</v>
+        <v>202973</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>242875</v>
+        <v>244898</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2684747744877325</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2420114981831571</v>
+        <v>0.2445088495248406</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2925753439809492</v>
+        <v>0.2950130772591961</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>456</v>
@@ -1651,19 +1651,19 @@
         <v>298589</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>271746</v>
+        <v>270019</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>326202</v>
+        <v>324571</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2137346655048883</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1945199931430862</v>
+        <v>0.1932833994639091</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2335002324946041</v>
+        <v>0.232332657965405</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>491161</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>474653</v>
+        <v>476099</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>505090</v>
+        <v>507007</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8664253609033362</v>
+        <v>0.866425360903336</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8373039179189853</v>
+        <v>0.8398562912634371</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8909975347728648</v>
+        <v>0.8943779005476504</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>921</v>
@@ -1701,19 +1701,19 @@
         <v>607259</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>587252</v>
+        <v>585229</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>629227</v>
+        <v>627154</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7315252255122675</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7074246560190507</v>
+        <v>0.7049869227408041</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.757988501816843</v>
+        <v>0.7554911504751596</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1379</v>
@@ -1722,19 +1722,19 @@
         <v>1098420</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1070807</v>
+        <v>1072438</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1125263</v>
+        <v>1126990</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7862653344951118</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7664997675053956</v>
+        <v>0.7676673420345951</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8054800068569137</v>
+        <v>0.806716600536091</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>22614</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12559</v>
+        <v>11338</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39815</v>
+        <v>38651</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09532708730964004</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05294242615431378</v>
+        <v>0.04779175071967699</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1678361465383208</v>
+        <v>0.1629287792728377</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>322</v>
@@ -1847,19 +1847,19 @@
         <v>204617</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>182730</v>
+        <v>186068</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>226778</v>
+        <v>227288</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.242355964591469</v>
+        <v>0.2423559645914691</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2164321896703097</v>
+        <v>0.2203868710400444</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2686048429687565</v>
+        <v>0.2692091702469934</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>336</v>
@@ -1868,19 +1868,19 @@
         <v>227231</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>203328</v>
+        <v>201973</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>255833</v>
+        <v>257560</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2101053425756068</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1880037954318706</v>
+        <v>0.1867506669932034</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2365516642690848</v>
+        <v>0.2381485992828086</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>214614</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>197413</v>
+        <v>198577</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>224669</v>
+        <v>225890</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9046729126903599</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8321638534616793</v>
+        <v>0.8370712207271623</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9470575738456862</v>
+        <v>0.9522082492803231</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>837</v>
@@ -1918,19 +1918,19 @@
         <v>639664</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>617503</v>
+        <v>616993</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>661551</v>
+        <v>658213</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7576440354085309</v>
+        <v>0.757644035408531</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7313951570312428</v>
+        <v>0.7307908297530065</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7835678103296904</v>
+        <v>0.7796131289599555</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>935</v>
@@ -1939,19 +1939,19 @@
         <v>854278</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>825676</v>
+        <v>823949</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>878181</v>
+        <v>879536</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7898946574243932</v>
+        <v>0.7898946574243934</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7634483357309154</v>
+        <v>0.7618514007171905</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8119962045681294</v>
+        <v>0.8132493330067964</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>437630</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>401156</v>
+        <v>397481</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>482751</v>
+        <v>481094</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1271664457835153</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1165680093618088</v>
+        <v>0.1155001311287317</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1402777239000114</v>
+        <v>0.1397963584389496</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1223</v>
@@ -2064,19 +2064,19 @@
         <v>779446</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>738952</v>
+        <v>741970</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>823556</v>
+        <v>824188</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2144809149396959</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2033381935692546</v>
+        <v>0.2041687336491104</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2266188501025848</v>
+        <v>0.2267928156907678</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1711</v>
@@ -2085,19 +2085,19 @@
         <v>1217075</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1163281</v>
+        <v>1156612</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1280522</v>
+        <v>1277107</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1720127253609145</v>
+        <v>0.1720127253609146</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1644098349538682</v>
+        <v>0.1634672330262629</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1809798133447046</v>
+        <v>0.1804971630097368</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>3003764</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2958643</v>
+        <v>2960300</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3040238</v>
+        <v>3043913</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8728335542164848</v>
+        <v>0.8728335542164849</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8597222760999885</v>
+        <v>0.8602036415610504</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8834319906381911</v>
+        <v>0.8844998688712685</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4019</v>
@@ -2135,19 +2135,19 @@
         <v>2854656</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2810546</v>
+        <v>2809914</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2895150</v>
+        <v>2892132</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.785519085060304</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.773381149897415</v>
+        <v>0.7732071843092322</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7966618064307454</v>
+        <v>0.7958312663508897</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6830</v>
@@ -2156,19 +2156,19 @@
         <v>5858421</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5794974</v>
+        <v>5798389</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5912215</v>
+        <v>5918884</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8279872746390853</v>
+        <v>0.8279872746390854</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8190201866552953</v>
+        <v>0.8195028369902635</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8355901650461316</v>
+        <v>0.8365327669737374</v>
       </c>
     </row>
     <row r="24">
